--- a/s1cDNASample/s1cDNASample_2651.xlsx
+++ b/s1cDNASample/s1cDNASample_2651.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226701E-643D-9C49-8395-929E01084639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2493F44-5BA1-184E-B1EB-8DA24A666A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -54,10 +54,10 @@
     <t>E7420L</t>
   </si>
   <si>
-    <t>01.09.17</t>
+    <t>H.BROWN</t>
   </si>
   <si>
-    <t>H.BROWN</t>
+    <t>01.09.18</t>
   </si>
 </sst>
 </file>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B45 E2:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" activeCellId="1" sqref="A25:A45 D24:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -615,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -638,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -799,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -808,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -822,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -914,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -937,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -969,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1003,19 +1003,19 @@
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1026,19 +1026,19 @@
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1049,19 +1049,19 @@
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1072,19 +1072,19 @@
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1095,19 +1095,19 @@
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1118,19 +1118,19 @@
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1141,19 +1141,19 @@
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1164,19 +1164,19 @@
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1302,19 +1302,19 @@
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1348,19 +1348,19 @@
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1394,19 +1394,19 @@
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1417,19 +1417,19 @@
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1440,19 +1440,19 @@
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>44</v>
